--- a/JupyterNotebooks/AveragedIntensities-SRP/Gamma1F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-SRP/Gamma1F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -31,6 +31,18 @@
     <t>Spiral</t>
   </si>
   <si>
+    <t>OffsetF</t>
+  </si>
+  <si>
+    <t>OffsetA</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt5degRes</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>1Pair-A</t>
+  </si>
+  <si>
+    <t>1Pair-B</t>
   </si>
   <si>
     <t>2Pairs-A</t>
@@ -440,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +516,11 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -510,58 +528,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,58 +590,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9733285302593659</v>
+        <v>0.9766066282420749</v>
       </c>
       <c r="D3">
-        <v>0.8101224783861671</v>
+        <v>0.806621037463977</v>
       </c>
       <c r="E3">
-        <v>1.077154178674351</v>
+        <v>1.07628242074928</v>
       </c>
       <c r="F3">
-        <v>0.9733285302593659</v>
+        <v>0.9766066282420749</v>
       </c>
       <c r="G3">
-        <v>0.8578025936599424</v>
+        <v>0.8578314121037464</v>
       </c>
       <c r="H3">
-        <v>1.266469740634006</v>
+        <v>1.262017291066282</v>
       </c>
       <c r="I3">
-        <v>1.052348703170029</v>
+        <v>1.05271613832853</v>
       </c>
       <c r="J3">
-        <v>0.8101224783861671</v>
+        <v>0.806621037463977</v>
       </c>
       <c r="K3">
-        <v>0.9733285302593659</v>
+        <v>0.9766066282420749</v>
       </c>
       <c r="L3">
-        <v>0.9436383285302593</v>
+        <v>1.07628242074928</v>
       </c>
       <c r="M3">
-        <v>0.9436383285302593</v>
+        <v>0.9414517291066282</v>
       </c>
       <c r="N3">
-        <v>0.9150264169068203</v>
+        <v>0.9414517291066282</v>
       </c>
       <c r="O3">
-        <v>0.9535350624399616</v>
+        <v>0.9135782901056676</v>
       </c>
       <c r="P3">
-        <v>0.9535350624399616</v>
+        <v>0.9531700288184437</v>
       </c>
       <c r="Q3">
-        <v>0.9584834293948126</v>
+        <v>0.9531700288184437</v>
       </c>
       <c r="R3">
-        <v>0.9584834293948126</v>
+        <v>0.9590291786743514</v>
       </c>
       <c r="S3">
-        <v>1.00620437079731</v>
+        <v>0.9590291786743514</v>
+      </c>
+      <c r="T3">
+        <v>1.005345821325648</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -628,58 +652,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.008590154140644</v>
+        <v>1.009662181161954</v>
       </c>
       <c r="D4">
-        <v>0.967122331264221</v>
+        <v>0.9665531897185299</v>
       </c>
       <c r="E4">
-        <v>0.9986341983137771</v>
+        <v>0.9979974765673288</v>
       </c>
       <c r="F4">
-        <v>1.008590154140644</v>
+        <v>1.009662181161954</v>
       </c>
       <c r="G4">
-        <v>0.9772653222348378</v>
+        <v>0.9773453179064604</v>
       </c>
       <c r="H4">
-        <v>1.003080432085543</v>
+        <v>1.002136977492128</v>
       </c>
       <c r="I4">
-        <v>1.001558435594122</v>
+        <v>1.001787173412981</v>
       </c>
       <c r="J4">
-        <v>0.967122331264221</v>
+        <v>0.9665531897185299</v>
       </c>
       <c r="K4">
-        <v>1.008590154140644</v>
+        <v>1.009662181161954</v>
       </c>
       <c r="L4">
-        <v>0.9828782647889991</v>
+        <v>0.9979974765673288</v>
       </c>
       <c r="M4">
-        <v>0.9828782647889991</v>
+        <v>0.9822753331429294</v>
       </c>
       <c r="N4">
-        <v>0.9810072839376121</v>
+        <v>0.9822753331429294</v>
       </c>
       <c r="O4">
-        <v>0.9914488945728808</v>
+        <v>0.9806319947307731</v>
       </c>
       <c r="P4">
-        <v>0.9914488945728807</v>
+        <v>0.9914042824826043</v>
       </c>
       <c r="Q4">
-        <v>0.9957342094648214</v>
+        <v>0.9914042824826043</v>
       </c>
       <c r="R4">
-        <v>0.9957342094648214</v>
+        <v>0.9959687571524418</v>
       </c>
       <c r="S4">
-        <v>0.9927084789388573</v>
+        <v>0.9959687571524418</v>
+      </c>
+      <c r="T4">
+        <v>0.9925803860432304</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -687,58 +714,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.02389269798442</v>
+        <v>1.025020716091789</v>
       </c>
       <c r="D5">
-        <v>0.9435524910884879</v>
+        <v>0.9431103096578571</v>
       </c>
       <c r="E5">
-        <v>1.000695745163666</v>
+        <v>0.9998160823045482</v>
       </c>
       <c r="F5">
-        <v>1.02389269798442</v>
+        <v>1.025020716091789</v>
       </c>
       <c r="G5">
-        <v>0.9653816901483757</v>
+        <v>0.9655641955633906</v>
       </c>
       <c r="H5">
-        <v>1.007414461675011</v>
+        <v>1.006412446476209</v>
       </c>
       <c r="I5">
-        <v>1.007177195907384</v>
+        <v>1.007384609498003</v>
       </c>
       <c r="J5">
-        <v>0.9435524910884879</v>
+        <v>0.9431103096578571</v>
       </c>
       <c r="K5">
-        <v>1.02389269798442</v>
+        <v>1.025020716091789</v>
       </c>
       <c r="L5">
-        <v>0.9721241181260769</v>
+        <v>0.9998160823045482</v>
       </c>
       <c r="M5">
-        <v>0.9721241181260769</v>
+        <v>0.9714631959812027</v>
       </c>
       <c r="N5">
-        <v>0.9698766421335098</v>
+        <v>0.9714631959812027</v>
       </c>
       <c r="O5">
-        <v>0.9893803114121914</v>
+        <v>0.9694968625085987</v>
       </c>
       <c r="P5">
-        <v>0.9893803114121913</v>
+        <v>0.9893157026847312</v>
       </c>
       <c r="Q5">
-        <v>0.9980084080552485</v>
+        <v>0.9893157026847312</v>
       </c>
       <c r="R5">
-        <v>0.9980084080552485</v>
+        <v>0.9982419560364956</v>
       </c>
       <c r="S5">
-        <v>0.9913523803278909</v>
+        <v>0.9982419560364956</v>
+      </c>
+      <c r="T5">
+        <v>0.991218059931966</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -746,58 +776,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9901535539655935</v>
+        <v>0.9906822651826908</v>
       </c>
       <c r="D6">
-        <v>0.9935172487639732</v>
+        <v>0.9934232063263552</v>
       </c>
       <c r="E6">
-        <v>0.9974179571983073</v>
+        <v>0.9971114466606487</v>
       </c>
       <c r="F6">
-        <v>0.9901535539655935</v>
+        <v>0.9906822651826908</v>
       </c>
       <c r="G6">
-        <v>0.9895794275900442</v>
+        <v>0.9895999663079804</v>
       </c>
       <c r="H6">
-        <v>1.00343127287404</v>
+        <v>1.002970065815645</v>
       </c>
       <c r="I6">
-        <v>0.9958916829036506</v>
+        <v>0.9959255459470567</v>
       </c>
       <c r="J6">
-        <v>0.9935172487639732</v>
+        <v>0.9934232063263552</v>
       </c>
       <c r="K6">
-        <v>0.9901535539655935</v>
+        <v>0.9906822651826908</v>
       </c>
       <c r="L6">
-        <v>0.9954676029811402</v>
+        <v>0.9971114466606487</v>
       </c>
       <c r="M6">
-        <v>0.9954676029811402</v>
+        <v>0.9952673264935019</v>
       </c>
       <c r="N6">
-        <v>0.9935048778507749</v>
+        <v>0.9952673264935019</v>
       </c>
       <c r="O6">
-        <v>0.9936962533092913</v>
+        <v>0.9933782064316614</v>
       </c>
       <c r="P6">
-        <v>0.9936962533092913</v>
+        <v>0.9937389727232316</v>
       </c>
       <c r="Q6">
-        <v>0.992810578473367</v>
+        <v>0.9937389727232316</v>
       </c>
       <c r="R6">
-        <v>0.992810578473367</v>
+        <v>0.9929747958380963</v>
       </c>
       <c r="S6">
-        <v>0.9949985238826015</v>
+        <v>0.9929747958380963</v>
+      </c>
+      <c r="T6">
+        <v>0.9949520827067295</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -805,55 +838,306 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9885873240038709</v>
+        <v>1.120092255082555</v>
       </c>
       <c r="D7">
-        <v>0.996569427942434</v>
+        <v>1.046331908572508</v>
       </c>
       <c r="E7">
-        <v>0.9969546953521777</v>
+        <v>0.9000153727474539</v>
       </c>
       <c r="F7">
-        <v>0.9885873240038709</v>
+        <v>1.120092255082555</v>
       </c>
       <c r="G7">
-        <v>0.9918684008992456</v>
+        <v>1.095417664142477</v>
       </c>
       <c r="H7">
-        <v>0.9998573886316411</v>
+        <v>0.6638777778453894</v>
       </c>
       <c r="I7">
-        <v>0.994928375453311</v>
+        <v>0.9557535756961746</v>
       </c>
       <c r="J7">
-        <v>0.996569427942434</v>
+        <v>1.046331908572508</v>
       </c>
       <c r="K7">
-        <v>0.9885873240038709</v>
+        <v>1.120092255082555</v>
       </c>
       <c r="L7">
-        <v>0.9967620616473059</v>
+        <v>0.9000153727474539</v>
       </c>
       <c r="M7">
-        <v>0.9967620616473059</v>
+        <v>0.9731736406599811</v>
       </c>
       <c r="N7">
-        <v>0.9951308413979524</v>
+        <v>0.9731736406599811</v>
       </c>
       <c r="O7">
-        <v>0.9940371490994941</v>
+        <v>1.01392164848748</v>
       </c>
       <c r="P7">
-        <v>0.9940371490994941</v>
+        <v>1.022146512134173</v>
       </c>
       <c r="Q7">
-        <v>0.9926746928255883</v>
+        <v>1.022146512134173</v>
       </c>
       <c r="R7">
-        <v>0.9926746928255883</v>
+        <v>1.046632947871268</v>
       </c>
       <c r="S7">
-        <v>0.99479426871378</v>
+        <v>1.046632947871268</v>
+      </c>
+      <c r="T7">
+        <v>0.9635814256810932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.9196222567790814</v>
+      </c>
+      <c r="D8">
+        <v>1.123183439351588</v>
+      </c>
+      <c r="E8">
+        <v>1.003424219258546</v>
+      </c>
+      <c r="F8">
+        <v>0.9196222567790814</v>
+      </c>
+      <c r="G8">
+        <v>1.018026418624242</v>
+      </c>
+      <c r="H8">
+        <v>1.047367271581791</v>
+      </c>
+      <c r="I8">
+        <v>0.9761861983916611</v>
+      </c>
+      <c r="J8">
+        <v>1.123183439351588</v>
+      </c>
+      <c r="K8">
+        <v>0.9196222567790814</v>
+      </c>
+      <c r="L8">
+        <v>1.003424219258546</v>
+      </c>
+      <c r="M8">
+        <v>1.063303829305067</v>
+      </c>
+      <c r="N8">
+        <v>1.063303829305067</v>
+      </c>
+      <c r="O8">
+        <v>1.048211359078125</v>
+      </c>
+      <c r="P8">
+        <v>1.015409971796405</v>
+      </c>
+      <c r="Q8">
+        <v>1.015409971796405</v>
+      </c>
+      <c r="R8">
+        <v>0.9914630430420742</v>
+      </c>
+      <c r="S8">
+        <v>0.9914630430420742</v>
+      </c>
+      <c r="T8">
+        <v>1.014634967331151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.98</v>
+      </c>
+      <c r="D9">
+        <v>0.21</v>
+      </c>
+      <c r="E9">
+        <v>0.84</v>
+      </c>
+      <c r="F9">
+        <v>1.98</v>
+      </c>
+      <c r="G9">
+        <v>0.64</v>
+      </c>
+      <c r="H9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.14</v>
+      </c>
+      <c r="J9">
+        <v>0.21</v>
+      </c>
+      <c r="K9">
+        <v>1.98</v>
+      </c>
+      <c r="L9">
+        <v>0.84</v>
+      </c>
+      <c r="M9">
+        <v>0.525</v>
+      </c>
+      <c r="N9">
+        <v>0.525</v>
+      </c>
+      <c r="O9">
+        <v>0.5633333333333334</v>
+      </c>
+      <c r="P9">
+        <v>1.01</v>
+      </c>
+      <c r="Q9">
+        <v>1.01</v>
+      </c>
+      <c r="R9">
+        <v>1.2525</v>
+      </c>
+      <c r="S9">
+        <v>1.2525</v>
+      </c>
+      <c r="T9">
+        <v>0.9166666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.84</v>
+      </c>
+      <c r="D10">
+        <v>0.44</v>
+      </c>
+      <c r="E10">
+        <v>1.27</v>
+      </c>
+      <c r="F10">
+        <v>0.84</v>
+      </c>
+      <c r="G10">
+        <v>0.68</v>
+      </c>
+      <c r="H10">
+        <v>1.52</v>
+      </c>
+      <c r="I10">
+        <v>1.15</v>
+      </c>
+      <c r="J10">
+        <v>0.44</v>
+      </c>
+      <c r="K10">
+        <v>0.84</v>
+      </c>
+      <c r="L10">
+        <v>1.27</v>
+      </c>
+      <c r="M10">
+        <v>0.855</v>
+      </c>
+      <c r="N10">
+        <v>0.855</v>
+      </c>
+      <c r="O10">
+        <v>0.7966666666666667</v>
+      </c>
+      <c r="P10">
+        <v>0.85</v>
+      </c>
+      <c r="Q10">
+        <v>0.85</v>
+      </c>
+      <c r="R10">
+        <v>0.8474999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.8474999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.9833333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.9950810218029537</v>
+      </c>
+      <c r="D11">
+        <v>0.9948803990747337</v>
+      </c>
+      <c r="E11">
+        <v>0.9943622104465786</v>
+      </c>
+      <c r="F11">
+        <v>0.9950810218029537</v>
+      </c>
+      <c r="G11">
+        <v>0.9916272098834858</v>
+      </c>
+      <c r="H11">
+        <v>0.9951506684726222</v>
+      </c>
+      <c r="I11">
+        <v>0.99493714788777</v>
+      </c>
+      <c r="J11">
+        <v>0.9948803990747337</v>
+      </c>
+      <c r="K11">
+        <v>0.9950810218029537</v>
+      </c>
+      <c r="L11">
+        <v>0.9943622104465786</v>
+      </c>
+      <c r="M11">
+        <v>0.9946213047606561</v>
+      </c>
+      <c r="N11">
+        <v>0.9946213047606561</v>
+      </c>
+      <c r="O11">
+        <v>0.9936232731349327</v>
+      </c>
+      <c r="P11">
+        <v>0.9947745437747554</v>
+      </c>
+      <c r="Q11">
+        <v>0.9947745437747554</v>
+      </c>
+      <c r="R11">
+        <v>0.9948511632818049</v>
+      </c>
+      <c r="S11">
+        <v>0.9948511632818049</v>
+      </c>
+      <c r="T11">
+        <v>0.9943397762613574</v>
       </c>
     </row>
   </sheetData>
